--- a/実験/実験記入用シート.xlsx
+++ b/実験/実験記入用シート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4FF4DA-F51A-424B-A4AB-2DABF0A19008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC738DC-9BB3-304B-A8BC-6594C311A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4540" yWindow="3360" windowWidth="27900" windowHeight="16060" activeTab="2" xr2:uid="{6DC5D6C1-B3EE-1844-9CC0-D9A6AA7A9B66}"/>
   </bookViews>
@@ -9725,10 +9725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1004E72-2224-4145-B9D5-DF12AD7C2858}">
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9736,7 +9736,7 @@
     <col min="1" max="1" width="12.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1">
+    <row r="1" spans="1:18" s="14" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>555</v>
       </c>
@@ -9788,8 +9788,11 @@
       <c r="Q1" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -9841,8 +9844,11 @@
       <c r="Q2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -9894,8 +9900,11 @@
       <c r="Q3">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -9947,8 +9956,11 @@
       <c r="Q4">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -10000,8 +10012,11 @@
       <c r="Q5">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -10053,8 +10068,11 @@
       <c r="Q6">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -10106,8 +10124,11 @@
       <c r="Q7">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -10159,8 +10180,11 @@
       <c r="Q8">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -10212,8 +10236,11 @@
       <c r="Q9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -10265,8 +10292,11 @@
       <c r="Q10">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -10318,8 +10348,11 @@
       <c r="Q11">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -10371,8 +10404,11 @@
       <c r="Q12">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -10424,8 +10460,11 @@
       <c r="Q13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -10477,8 +10516,11 @@
       <c r="Q14">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -10530,8 +10572,11 @@
       <c r="Q15">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -10583,8 +10628,11 @@
       <c r="Q16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -10636,8 +10684,11 @@
       <c r="Q17">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -10689,8 +10740,11 @@
       <c r="Q18">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -10742,8 +10796,11 @@
       <c r="Q19">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -10795,8 +10852,11 @@
       <c r="Q20">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -10848,8 +10908,11 @@
       <c r="Q21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -10901,8 +10964,11 @@
       <c r="Q22">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -10954,8 +11020,11 @@
       <c r="Q23">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -11007,8 +11076,11 @@
       <c r="Q24">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -11060,8 +11132,11 @@
       <c r="Q25">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -11113,8 +11188,11 @@
       <c r="Q26">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -11166,8 +11244,11 @@
       <c r="Q27">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -11219,8 +11300,11 @@
       <c r="Q28">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -11272,8 +11356,11 @@
       <c r="Q29">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -11325,8 +11412,11 @@
       <c r="Q30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -11378,8 +11468,11 @@
       <c r="Q31">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -11431,8 +11524,11 @@
       <c r="Q32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -11484,8 +11580,11 @@
       <c r="Q33">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -11537,8 +11636,11 @@
       <c r="Q34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -11590,8 +11692,11 @@
       <c r="Q35">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -11643,8 +11748,11 @@
       <c r="Q36">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -11696,8 +11804,11 @@
       <c r="Q37">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -11749,8 +11860,11 @@
       <c r="Q38">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -11802,8 +11916,11 @@
       <c r="Q39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -11855,8 +11972,11 @@
       <c r="Q40">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -11908,8 +12028,11 @@
       <c r="Q41">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -11961,8 +12084,11 @@
       <c r="Q42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -12014,8 +12140,11 @@
       <c r="Q43">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -12067,8 +12196,11 @@
       <c r="Q44">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -12120,8 +12252,11 @@
       <c r="Q45">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -12173,8 +12308,11 @@
       <c r="Q46">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -12226,8 +12364,11 @@
       <c r="Q47">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -12279,8 +12420,11 @@
       <c r="Q48">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -12332,8 +12476,11 @@
       <c r="Q49">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -12385,8 +12532,11 @@
       <c r="Q50">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -12438,8 +12588,11 @@
       <c r="Q51">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -12491,8 +12644,11 @@
       <c r="Q52">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -12544,8 +12700,11 @@
       <c r="Q53">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -12597,8 +12756,11 @@
       <c r="Q54">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -12650,8 +12812,11 @@
       <c r="Q55">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -12703,8 +12868,11 @@
       <c r="Q56">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -12756,8 +12924,11 @@
       <c r="Q57">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -12809,8 +12980,11 @@
       <c r="Q58">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -12862,8 +13036,11 @@
       <c r="Q59">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -12915,8 +13092,11 @@
       <c r="Q60">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -12968,8 +13148,11 @@
       <c r="Q61">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -13021,8 +13204,11 @@
       <c r="Q62">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -13074,8 +13260,11 @@
       <c r="Q63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -13127,8 +13316,11 @@
       <c r="Q64">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -13180,8 +13372,11 @@
       <c r="Q65">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -13233,8 +13428,11 @@
       <c r="Q66">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -13286,8 +13484,11 @@
       <c r="Q67">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -13339,8 +13540,11 @@
       <c r="Q68">
         <v>31</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -13392,8 +13596,11 @@
       <c r="Q69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -13445,8 +13652,11 @@
       <c r="Q70">
         <v>131</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -13498,8 +13708,11 @@
       <c r="Q71">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -13551,8 +13764,11 @@
       <c r="Q72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -13604,8 +13820,11 @@
       <c r="Q73">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -13657,8 +13876,11 @@
       <c r="Q74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -13710,8 +13932,11 @@
       <c r="Q75">
         <v>89</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -13763,8 +13988,11 @@
       <c r="Q76">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -13816,8 +14044,11 @@
       <c r="Q77">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -13869,8 +14100,11 @@
       <c r="Q78">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -13922,8 +14156,11 @@
       <c r="Q79">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -13975,8 +14212,11 @@
       <c r="Q80">
         <v>63</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -14028,8 +14268,11 @@
       <c r="Q81">
         <v>53</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -14081,8 +14324,11 @@
       <c r="Q82">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -14134,8 +14380,11 @@
       <c r="Q83">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -14187,8 +14436,11 @@
       <c r="Q84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -14240,8 +14492,11 @@
       <c r="Q85">
         <v>132</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -14293,8 +14548,11 @@
       <c r="Q86">
         <v>114</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -14346,8 +14604,11 @@
       <c r="Q87">
         <v>98</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -14399,8 +14660,11 @@
       <c r="Q88">
         <v>59</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -14452,8 +14716,11 @@
       <c r="Q89">
         <v>107</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -14505,8 +14772,11 @@
       <c r="Q90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -14558,8 +14828,11 @@
       <c r="Q91">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -14611,8 +14884,11 @@
       <c r="Q92">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -14664,8 +14940,11 @@
       <c r="Q93">
         <v>133</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -14717,8 +14996,11 @@
       <c r="Q94">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -14770,8 +15052,11 @@
       <c r="Q95">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -14823,8 +15108,11 @@
       <c r="Q96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -14876,8 +15164,11 @@
       <c r="Q97">
         <v>60</v>
       </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -14929,8 +15220,11 @@
       <c r="Q98">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -14982,8 +15276,11 @@
       <c r="Q99">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -15035,8 +15332,11 @@
       <c r="Q100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -15088,8 +15388,11 @@
       <c r="Q101">
         <v>120</v>
       </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -15141,8 +15444,11 @@
       <c r="Q102">
         <v>116</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -15194,8 +15500,11 @@
       <c r="Q103">
         <v>85</v>
       </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -15247,8 +15556,11 @@
       <c r="Q104">
         <v>62</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -15300,8 +15612,11 @@
       <c r="Q105">
         <v>49</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -15353,8 +15668,11 @@
       <c r="Q106">
         <v>34</v>
       </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -15406,8 +15724,11 @@
       <c r="Q107">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -15459,8 +15780,11 @@
       <c r="Q108">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -15512,8 +15836,11 @@
       <c r="Q109">
         <v>129</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -15565,8 +15892,11 @@
       <c r="Q110">
         <v>130</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -15618,8 +15948,11 @@
       <c r="Q111">
         <v>61</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -15671,8 +16004,11 @@
       <c r="Q112">
         <v>102</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -15724,8 +16060,11 @@
       <c r="Q113">
         <v>117</v>
       </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -15777,8 +16116,11 @@
       <c r="Q114">
         <v>101</v>
       </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -15830,8 +16172,11 @@
       <c r="Q115">
         <v>108</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -15883,8 +16228,11 @@
       <c r="Q116">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -15936,8 +16284,11 @@
       <c r="Q117">
         <v>44</v>
       </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -15989,8 +16340,11 @@
       <c r="Q118">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="15">
         <v>118</v>
       </c>
@@ -16042,8 +16396,11 @@
       <c r="Q119">
         <v>41</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -16095,8 +16452,11 @@
       <c r="Q120">
         <v>78</v>
       </c>
-    </row>
-    <row r="121" spans="1:17">
+      <c r="R120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -16148,8 +16508,11 @@
       <c r="Q121">
         <v>100</v>
       </c>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -16201,8 +16564,11 @@
       <c r="Q122">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -16254,8 +16620,11 @@
       <c r="Q123">
         <v>64</v>
       </c>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -16307,8 +16676,11 @@
       <c r="Q124">
         <v>94</v>
       </c>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -16360,8 +16732,11 @@
       <c r="Q125">
         <v>84</v>
       </c>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -16413,8 +16788,11 @@
       <c r="Q126">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:17">
+      <c r="R126">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -16466,8 +16844,11 @@
       <c r="Q127">
         <v>48</v>
       </c>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="R127">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -16519,8 +16900,11 @@
       <c r="Q128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -16572,8 +16956,11 @@
       <c r="Q129">
         <v>91</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -16625,8 +17012,11 @@
       <c r="Q130">
         <v>67</v>
       </c>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -16678,8 +17068,11 @@
       <c r="Q131">
         <v>47</v>
       </c>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -16731,8 +17124,11 @@
       <c r="Q132">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -16784,8 +17180,11 @@
       <c r="Q133">
         <v>57</v>
       </c>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -16837,8 +17236,11 @@
       <c r="Q134">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -16889,6 +17291,9 @@
       </c>
       <c r="Q135">
         <v>125</v>
+      </c>
+      <c r="R135">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
